--- a/Makemytripapp/src/main/java/com/makemytrip/qa/testdata/MakeMyTrip_TestData.xlsx
+++ b/Makemytripapp/src/main/java/com/makemytrip/qa/testdata/MakeMyTrip_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{87EFA02B-EF76-4B40-A058-D9C9AF30FD42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8E918414-E806-482B-A449-615BADFDC830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19460" windowHeight="11060" xr2:uid="{A3444F79-731B-4229-8CC2-B2C82478E106}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" xr2:uid="{A3444F79-731B-4229-8CC2-B2C82478E106}"/>
   </bookViews>
   <sheets>
     <sheet name="Search_Hotels" sheetId="1" r:id="rId1"/>
@@ -41,22 +41,22 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>25 Jan 2020</t>
-  </si>
-  <si>
-    <t>27 Jan 2020</t>
-  </si>
-  <si>
-    <t>26 Feb 2020</t>
-  </si>
-  <si>
-    <t>29 Feb 2020</t>
-  </si>
-  <si>
-    <t>27 Mar 2020</t>
-  </si>
-  <si>
-    <t>31 Mar 2020</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
 </sst>
 </file>
@@ -452,8 +452,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -475,7 +474,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -483,10 +482,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -494,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>

--- a/Makemytripapp/src/main/java/com/makemytrip/qa/testdata/MakeMyTrip_TestData.xlsx
+++ b/Makemytripapp/src/main/java/com/makemytrip/qa/testdata/MakeMyTrip_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8E918414-E806-482B-A449-615BADFDC830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ADF62210-05F6-4D0B-8097-9C2DAAD36511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" xr2:uid="{A3444F79-731B-4229-8CC2-B2C82478E106}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19460" windowHeight="11060" xr2:uid="{A3444F79-731B-4229-8CC2-B2C82478E106}"/>
   </bookViews>
   <sheets>
     <sheet name="Search_Hotels" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Mumbai</t>
   </si>
@@ -57,6 +57,30 @@
   </si>
   <si>
     <t>31</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Sai</t>
+  </si>
+  <si>
+    <t>Smaran</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Reddy</t>
   </si>
 </sst>
 </file>
@@ -446,13 +470,14 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -465,6 +490,12 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -476,6 +507,12 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -487,6 +524,12 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -497,6 +540,12 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
